--- a/Excel/excel/GuideDescConfig.xlsx
+++ b/Excel/excel/GuideDescConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975"/>
+    <workbookView windowWidth="25905" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GuideDescConfig" sheetId="1" r:id="rId1"/>
@@ -12,20 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GuideDescConfig!$A$4:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -70,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -115,12 +102,15 @@
   </si>
   <si>
     <t>ui://GuidePKG/guideDesc22</t>
+  </si>
+  <si>
+    <t>你完成了本次指引!真nb哦</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1251,7 +1241,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1331,12 +1321,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
